--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1768783.489421522</v>
+        <v>1856317.996506667</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5838093.856979907</v>
+        <v>6171612.434636305</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.67859516108212</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>277.8143910029431</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>50.82605640424744</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>159.582856075998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>275.9373936369062</v>
       </c>
       <c r="D5" t="n">
-        <v>39.34122081347544</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1054,10 +1056,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>146.2546517426812</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>145.3729269677389</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1136,22 +1138,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>325.16745234556</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>416.0439047691521</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>56.63677140718762</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>85.78580588144442</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1345,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>146.2844892976567</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>43.70143389869422</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>319.2123946913315</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>31.24391673888162</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1774,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6391170798906</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1847,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.139541480023854</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2087,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2248,7 +2250,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.0131344328856</v>
+        <v>102.6974459740354</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>23.92593778768311</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>122.1591039832982</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>131.9969996527466</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791320727</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>52.5117099198479</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3506,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>63.51633119327856</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>116.7267036725895</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3907,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>163.6395778340024</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3980,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>66.21482474651673</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998732</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>400.4118020839785</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="M2" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K2" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>687.9235674375537</v>
-      </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.105672808467</v>
+        <v>1250.099555649518</v>
       </c>
       <c r="X2" t="n">
-        <v>613.9632093877782</v>
+        <v>830.9570922288289</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.6770856874316</v>
+        <v>826.7113725688863</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,40 +4397,40 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>828.705283579131</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>656.1435720623559</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>656.1435720623559</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1535.988625963248</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1257.555625216353</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V4" t="n">
-        <v>970.6001170867833</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W4" t="n">
-        <v>698.5737126730747</v>
+        <v>1265.915656964706</v>
       </c>
       <c r="X4" t="n">
-        <v>453.1819580064872</v>
+        <v>1020.523902298118</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.7622873205955</v>
+        <v>1020.523902298118</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1512.215525774048</v>
       </c>
       <c r="C5" t="n">
-        <v>1620.659365270951</v>
+        <v>1233.490885736769</v>
       </c>
       <c r="D5" t="n">
-        <v>1580.920758388652</v>
+        <v>797.5811009112139</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.33908412592</v>
+        <v>363.806356069509</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>557.7649106726449</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.90022853073</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847747</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847747</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1553.82247125878</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1538.720411878495</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1534.474692218552</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="L6" t="n">
-        <v>857.0776321906106</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="M6" t="n">
-        <v>1277.130531135514</v>
+        <v>431.6596472970919</v>
       </c>
       <c r="N6" t="n">
-        <v>1697.183430080417</v>
+        <v>431.6596472970919</v>
       </c>
       <c r="O6" t="n">
-        <v>1697.183430080417</v>
+        <v>431.6596472970919</v>
       </c>
       <c r="P6" t="n">
-        <v>1697.183430080417</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>999.5121399286438</v>
+        <v>963.6125544028811</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>791.050842886106</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609522</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055678</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.750429333523</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="W7" t="n">
-        <v>1418.750429333523</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="X7" t="n">
-        <v>1418.750429333523</v>
+        <v>1382.85084380776</v>
       </c>
       <c r="Y7" t="n">
-        <v>1191.330758647631</v>
+        <v>1155.431173121868</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>1256.616618691218</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.659365270951</v>
+        <v>1222.514549915045</v>
       </c>
       <c r="D8" t="n">
-        <v>1292.207393204728</v>
+        <v>1190.645169129893</v>
       </c>
       <c r="E8" t="n">
-        <v>863.6257189419966</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F8" t="n">
-        <v>435.7582893512044</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1687.161908836068</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1278.875785135721</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O9" t="n">
-        <v>1580.010651986078</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P9" t="n">
-        <v>1580.010651986078</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>209.2559470001092</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C10" t="n">
-        <v>209.2559470001092</v>
+        <v>847.3485218817324</v>
       </c>
       <c r="D10" t="n">
-        <v>209.2559470001092</v>
+        <v>681.4705290832551</v>
       </c>
       <c r="E10" t="n">
-        <v>209.2559470001092</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>209.2559470001092</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>209.2559470001092</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V10" t="n">
-        <v>726.6741060804052</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W10" t="n">
-        <v>454.6477016666967</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X10" t="n">
-        <v>209.2559470001092</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y10" t="n">
-        <v>209.2559470001092</v>
+        <v>1211.728852117495</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2064.217558403193</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>1345.742592622717</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N11" t="n">
-        <v>1345.742592622717</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3659.11855017937</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3296.501600113196</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2891.646145524229</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2472.50368210354</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2064.217558403193</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>1081.465657964015</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6336502885522</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0719387717771</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D13" t="n">
-        <v>588.1939459732998</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>451.897152078511</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162086</v>
+        <v>286.3058771043387</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>146.4037027947132</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2674.558054071736</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.678607650191</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.245606903296</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.290098773727</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.263694360019</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.871939693431</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.452269007539</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L14" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M14" t="n">
-        <v>1345.742592622717</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N14" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2921.502494640459</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2921.502494640459</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2502.36003121977</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2502.36003121977</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>76.13761321162086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K15" t="n">
-        <v>756.8711332819981</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="L15" t="n">
-        <v>802.4814301168919</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="M15" t="n">
-        <v>802.4814301168919</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="N15" t="n">
-        <v>802.4814301168919</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="O15" t="n">
-        <v>802.4814301168919</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.20459659609</v>
+        <v>1628.781199980813</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>785.6314506292333</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0719387717771</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D16" t="n">
-        <v>588.1939459732998</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E16" t="n">
-        <v>418.435942224037</v>
+        <v>454.7008598460233</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7288881857932</v>
+        <v>454.7008598460233</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162086</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.2614947007</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.869740034112</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>977.4500693482205</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5497,31 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
         <v>1463.168637987181</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D18" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>3774.396776742189</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.552685307369</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S18" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T18" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U18" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V18" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W18" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X18" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>3184.458419759167</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>3011.896708242392</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>2846.018715443915</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>2676.260711694652</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>2499.553657656408</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>2499.553657656408</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>2499.553657656408</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>3376.277038478154</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>3569.079287993934</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.552685307369</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1004.611946844417</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>832.0502353276421</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>666.1722425291648</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
         <v>496.4142387799021</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y22" t="n">
-        <v>1196.430565563404</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5983,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,31 +5998,31 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
         <v>4187.483659846699</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>4099.24040372068</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>4099.24040372068</v>
       </c>
       <c r="N27" t="n">
-        <v>1300.985674363279</v>
+        <v>4099.24040372068</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6418,16 +6420,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6451,10 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436396</v>
@@ -6461,22 +6463,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>269.4112304877946</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>1103.761522445973</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P29" t="n">
         <v>5113.042013538981</v>
@@ -6546,16 +6548,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1056.803889081883</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6679,70 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D32" t="n">
         <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N32" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O32" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P32" t="n">
-        <v>4552.836435941488</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
         <v>2955.199618136697</v>
@@ -6786,16 +6788,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>210.9600532992111</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>210.9600532992111</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
         <v>1765.500601749588</v>
@@ -6880,16 +6882,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2404.930957497405</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V34" t="n">
         <v>2117.975449367836</v>
@@ -6917,43 +6919,43 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436403</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1680.929463568621</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M35" t="n">
-        <v>2837.977298779172</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785925</v>
@@ -6962,25 +6964,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7022,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1015.727725908489</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>843.1660143917137</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>677.2880215932364</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>507.5300178439736</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2239.339682523233</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1952.384174393664</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1680.357769979955</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1434.966015313368</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1207.546344627476</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7156,19 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,10 +7180,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7248,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2228.223903459162</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1941.268395329592</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1320.714971542188</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L41" t="n">
-        <v>2262.917935035995</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M41" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3444.26371051487</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3039.408255925903</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>2620.265792505214</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2620.265792505214</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964015</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964015</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964015</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964015</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1066.535824598178</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>893.9741130814026</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D43" t="n">
-        <v>728.0961202829253</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E43" t="n">
-        <v>558.3381165336625</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F43" t="n">
-        <v>381.6310624954187</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>216.0397875212464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2692.797223114421</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.917776692876</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2168.484775945981</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>2003.192273083353</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1731.165868669644</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1485.774114003057</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1258.354443317165</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1375.922260460695</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>937.779787644118</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>937.779787644118</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>504.0050428024131</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>76.13761321162086</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G44" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>76.13761321162086</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>378.5120080483794</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1320.714971542188</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2262.917935035995</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N44" t="n">
-        <v>2262.917935035995</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3656.345125404762</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3397.122822721779</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3034.505872655605</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2629.650418066638</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2210.507954645949</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>1802.221830945603</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.6336502885522</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C46" t="n">
-        <v>754.0719387717771</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D46" t="n">
-        <v>588.1939459732998</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E46" t="n">
-        <v>418.435942224037</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7288881857932</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G46" t="n">
-        <v>76.13761321162086</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162086</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S46" t="n">
-        <v>2674.558054071736</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T46" t="n">
-        <v>2428.678607650191</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U46" t="n">
-        <v>2150.245606903296</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V46" t="n">
-        <v>1863.290098773727</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W46" t="n">
-        <v>1591.263694360019</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.871939693431</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y46" t="n">
-        <v>1118.452269007539</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>79.31589866453203</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335029</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>52.98895607821112</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201044</v>
+        <v>385.0780411188028</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,16 +8382,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>291.5292041581911</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1082.305540278396</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8929,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>903.3699580700795</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>46.07100690393315</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>19.7440643176119</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="K18" t="n">
         <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1133.488385918383</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,13 +9646,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>655.9980117748582</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949884526</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,16 +9959,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,7 +10129,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10194,19 +10196,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,19 +10357,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>395.0015281256929</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10434,19 +10436,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>109.7971848772035</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>312.1854988755003</v>
+        <v>500.2430848324439</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10668,25 +10670,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11060,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>817.4976473511605</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>305.4286816532915</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>216.346812327467</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>110.3455903584966</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>44.07191583437719</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>39.77838587418023</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.5921776627257</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>41.29624514454001</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>84.63380825304756</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.1323395461472</v>
+        <v>122.4480280049974</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.134485924087</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>102.9863699957346</v>
       </c>
     </row>
     <row r="29">
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>223.1369608195778</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>212.1323395461471</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>305.3098711074691</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>151.651730109175</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>208.2197249473419</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498650.2480743054</v>
+        <v>513446.2909014599</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498650.2480743054</v>
+        <v>516110.3509550397</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>438148.7114635328</v>
+        <v>541901.0587747197</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>438148.7114635329</v>
+        <v>541901.0587747197</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>541901.0587747197</v>
+        <v>541901.0587747198</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>541901.0587747198</v>
+        <v>541901.0587747197</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>438148.7114635328</v>
+        <v>541901.0587747197</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>438148.7114635328</v>
+        <v>541901.0587747197</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>482532.5879013676</v>
       </c>
       <c r="C2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="D2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="E2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.825723617</v>
       </c>
       <c r="F2" t="n">
-        <v>383386.9136976223</v>
+        <v>474171.825723617</v>
       </c>
       <c r="G2" t="n">
         <v>474171.825723617</v>
@@ -26332,28 +26334,28 @@
         <v>474171.825723617</v>
       </c>
       <c r="I2" t="n">
+        <v>474171.825723617</v>
+      </c>
+      <c r="J2" t="n">
+        <v>474171.8257236171</v>
+      </c>
+      <c r="K2" t="n">
         <v>474171.8257236169</v>
-      </c>
-      <c r="J2" t="n">
-        <v>474171.825723617</v>
-      </c>
-      <c r="K2" t="n">
-        <v>474171.825723617</v>
       </c>
       <c r="L2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="M2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="O2" t="n">
-        <v>383386.9136976225</v>
+        <v>474171.825723617</v>
       </c>
       <c r="P2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501616</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998277</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622314</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>212093.119437218</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>179718.6327917066</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>76713.02278410409</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="F4" t="n">
-        <v>76713.02278410409</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875283</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="N4" t="n">
+        <v>94878.44464875286</v>
+      </c>
+      <c r="O4" t="n">
         <v>94878.44464875291</v>
       </c>
-      <c r="O4" t="n">
-        <v>76713.02278410409</v>
-      </c>
       <c r="P4" t="n">
-        <v>76713.02278410411</v>
+        <v>94878.44464875291</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26488,7 +26490,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>68823.37966721744</v>
       </c>
       <c r="C6" t="n">
-        <v>211014.6803269273</v>
+        <v>164269.9734066424</v>
       </c>
       <c r="D6" t="n">
-        <v>211014.6803269274</v>
+        <v>222902.9325231841</v>
       </c>
       <c r="E6" t="n">
-        <v>91332.00995058248</v>
+        <v>119220.0332480218</v>
       </c>
       <c r="F6" t="n">
-        <v>248809.3048726863</v>
+        <v>301575.1424690716</v>
       </c>
       <c r="G6" t="n">
-        <v>212075.3338627025</v>
+        <v>301575.1424690717</v>
       </c>
       <c r="H6" t="n">
+        <v>301575.1424690717</v>
+      </c>
+      <c r="I6" t="n">
+        <v>301575.1424690717</v>
+      </c>
+      <c r="J6" t="n">
+        <v>190560.6771240815</v>
+      </c>
+      <c r="K6" t="n">
+        <v>248529.287830299</v>
+      </c>
+      <c r="L6" t="n">
+        <v>292182.8407424493</v>
+      </c>
+      <c r="M6" t="n">
+        <v>149374.971531084</v>
+      </c>
+      <c r="N6" t="n">
+        <v>301575.1424690717</v>
+      </c>
+      <c r="O6" t="n">
         <v>301575.1424690716</v>
       </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
         <v>301575.1424690716</v>
-      </c>
-      <c r="J6" t="n">
-        <v>190560.6771240814</v>
-      </c>
-      <c r="K6" t="n">
-        <v>301575.1424690718</v>
-      </c>
-      <c r="L6" t="n">
-        <v>301575.1424690717</v>
-      </c>
-      <c r="M6" t="n">
-        <v>170138.8953116522</v>
-      </c>
-      <c r="N6" t="n">
-        <v>301575.1424690716</v>
-      </c>
-      <c r="O6" t="n">
-        <v>248809.3048726866</v>
-      </c>
-      <c r="P6" t="n">
-        <v>248809.3048726864</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939339</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939339</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939339</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.3579796189766</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>155.9466570854678</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>117.2343673075227</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27587,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>83.83779588133126</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>157.8236544515048</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>392.2094661638245</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>24.58144265892614</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>97.5649101521827</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,22 +27858,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>106.3832346317399</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>13.39309262413565</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71734668508481</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>79.31589866453203</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335029</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>52.98895607821112</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201044</v>
+        <v>385.0780411188028</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35102,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>291.5292041581911</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1082.305540278396</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>903.3699580700795</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>46.07100690393315</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>19.7440643176119</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327043</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1133.488385918383</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,13 +36366,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>655.9980117748582</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949884526</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,19 +36606,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>1024.042030119496</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,7 +36849,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>395.0015281256929</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>109.7971848772035</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>312.1854988755003</v>
+        <v>500.2430848324439</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37780,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>817.4976473511605</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>305.4286816532915</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>216.346812327467</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,13 +38189,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1856317.996506667</v>
+        <v>1855792.814137635</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.072591686</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6171612.434636305</v>
+        <v>6171612.434636304</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>277.8143910029431</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>272.7832380826</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>50.82605640424744</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>31.94525663068167</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>275.9373936369062</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>234.4625200488515</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -949,10 +949,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>16.77055614676353</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1116,10 +1116,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>145.3729269677389</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>416.0439047691521</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>30.1577499769271</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1299,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>56.63677140718762</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1536,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>43.70143389869422</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>122.6391170798906</v>
+        <v>75.74046452697245</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1849,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>3.139541480023854</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2061,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2089,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463344</v>
       </c>
     </row>
     <row r="21">
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>102.6974459740354</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2383,7 +2383,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>414.951038786483</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2484,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>23.92593778768311</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2535,13 +2535,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>122.1591039832982</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791320727</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>234.6314620976453</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3681,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>63.51633119327856</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>83.49545568308318</v>
       </c>
     </row>
     <row r="41">
@@ -3799,10 +3799,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>257.3293783238797</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -4155,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998732</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>234.6314620976453</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.4118020839785</v>
+        <v>804.4522061243825</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>770.35013734821</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>738.4807565630585</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>309.8990823003269</v>
       </c>
       <c r="F2" t="n">
         <v>34.36045797446834</v>
@@ -4333,25 +4333,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O2" t="n">
         <v>874.0494664914149</v>
       </c>
-      <c r="O2" t="n">
-        <v>1294.102365436318</v>
-      </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4406,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>437.0247332457074</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>828.705283579131</v>
+        <v>541.7497754495614</v>
       </c>
       <c r="C4" t="n">
-        <v>656.1435720623559</v>
+        <v>541.7497754495614</v>
       </c>
       <c r="D4" t="n">
-        <v>656.1435720623559</v>
+        <v>375.8717826510841</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>206.1137789018214</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,22 +4491,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>91.74450617142992</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>509.954387939391</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M4" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4524,16 +4524,16 @@
         <v>1537.942061378414</v>
       </c>
       <c r="V4" t="n">
-        <v>1537.942061378414</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="W4" t="n">
-        <v>1265.915656964706</v>
+        <v>978.9601488351361</v>
       </c>
       <c r="X4" t="n">
-        <v>1020.523902298118</v>
+        <v>733.5683941685486</v>
       </c>
       <c r="Y4" t="n">
-        <v>1020.523902298118</v>
+        <v>733.5683941685486</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1512.215525774048</v>
+        <v>779.3838434627759</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.490885736769</v>
+        <v>341.2413706461992</v>
       </c>
       <c r="D5" t="n">
-        <v>797.5811009112139</v>
+        <v>104.4105423140259</v>
       </c>
       <c r="E5" t="n">
-        <v>363.806356069509</v>
+        <v>74.67620151272519</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233699</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233699</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233708</v>
+        <v>50.84917596233699</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947708</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947708</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>50.43238658947708</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>50.43238658947708</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726449</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717424</v>
+        <v>1181.86569471742</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762203</v>
+        <v>1805.966478762198</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720797</v>
+        <v>2352.465264720793</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657691</v>
+        <v>2437.967455657687</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.90022853073</v>
+        <v>2437.967455657687</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.677925847747</v>
+        <v>2437.967455657687</v>
       </c>
       <c r="V5" t="n">
-        <v>1958.677925847747</v>
+        <v>2437.967455657687</v>
       </c>
       <c r="W5" t="n">
-        <v>1553.82247125878</v>
+        <v>2033.11200106872</v>
       </c>
       <c r="X5" t="n">
-        <v>1538.720411878495</v>
+        <v>1613.96953764803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1534.474692218552</v>
+        <v>1205.683413947684</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326461</v>
+        <v>92.16803877326453</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947708</v>
+        <v>76.49605974993459</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947708</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947708</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947708</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="M6" t="n">
-        <v>431.6596472970919</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>431.6596472970919</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970919</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>963.6125544028811</v>
+        <v>752.2771043960374</v>
       </c>
       <c r="C7" t="n">
-        <v>791.050842886106</v>
+        <v>579.7153928792624</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>413.8374000807851</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>244.0793963315223</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>67.37234229327854</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>67.37234229327854</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947708</v>
+        <v>137.0120717541668</v>
       </c>
       <c r="K7" t="n">
-        <v>325.1908411606126</v>
+        <v>411.7705263253024</v>
       </c>
       <c r="L7" t="n">
-        <v>743.4007229285737</v>
+        <v>829.9804080932635</v>
       </c>
       <c r="M7" t="n">
-        <v>1202.884590109487</v>
+        <v>1143.99160825575</v>
       </c>
       <c r="N7" t="n">
-        <v>1645.143393267131</v>
+        <v>1586.250411413394</v>
       </c>
       <c r="O7" t="n">
-        <v>2064.812642492913</v>
+        <v>2005.919660639176</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609522</v>
+        <v>2353.426554609518</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179226</v>
+        <v>2500.201508179221</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477223</v>
+        <v>2500.201508179221</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055678</v>
+        <v>2254.322061757677</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308783</v>
+        <v>1975.889061010782</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179213</v>
+        <v>1688.933552881212</v>
       </c>
       <c r="W7" t="n">
-        <v>1529.692184179213</v>
+        <v>1416.907148467504</v>
       </c>
       <c r="X7" t="n">
-        <v>1382.85084380776</v>
+        <v>1171.515393800916</v>
       </c>
       <c r="Y7" t="n">
-        <v>1155.431173121868</v>
+        <v>944.0957231150246</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1256.616618691218</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.514549915045</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.645169129893</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>770.3988006762045</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4807,49 +4807,49 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2107.11942280532</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W8" t="n">
-        <v>1702.263968216353</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.161908836068</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1278.875785135721</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1019.910233398507</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>847.3485218817324</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>681.4705290832551</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>2243.522190013252</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1956.566681883682</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1684.540277469974</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1439.148522803386</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1211.728852117495</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5047,13 +5047,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
         <v>3569.079287993934</v>
@@ -5077,16 +5077,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>451.897152078511</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>451.897152078511</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>286.3058771043387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>146.4037027947132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5281,28 +5281,28 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
         <v>5029.390139722817</v>
@@ -5317,7 +5317,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
@@ -5357,25 +5357,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>809.0580335016147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>809.0580335016147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>809.0580335016147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>809.0580335016147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>809.0580335016147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1628.781199980813</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C16" t="n">
-        <v>790.3368563937634</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D16" t="n">
-        <v>624.4588635952861</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E16" t="n">
-        <v>454.7008598460233</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F16" t="n">
-        <v>454.7008598460233</v>
+        <v>318.6685343046197</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5515,16 +5515,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>306.1208027766299</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5548,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>3774.396776742189</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3184.458419759167</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>3011.896708242392</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>2846.018715443915</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>2676.260711694652</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>2499.553657656408</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>2499.553657656408</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>2499.553657656408</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>4686.503377120805</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>4408.070376373911</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>4121.114868244342</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>3849.088463830633</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>3603.696709164046</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>3376.277038478154</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
@@ -5752,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5797,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2559.679081471576</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2281.246080724681</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1994.290572595111</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.264168181403</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1476.872413514815</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5992,10 +5992,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M23" t="n">
         <v>3007.131363532228</v>
@@ -6013,28 +6013,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1035.728611060351</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>863.1668995435758</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>697.2889067450985</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1454.96690046523</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1227.547229779338</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4099.24040372068</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4099.24040372068</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4099.24040372068</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1741.922408594799</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>269.4112304877946</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1103.761522445973</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
         <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
         <v>2955.199618136697</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2313.799635050031</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436403</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
@@ -6973,16 +6973,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7180,10 +7180,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7253,28 +7253,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>128.3245134312372</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>128.3245134312372</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>1327.049347523737</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>1327.049347523737</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>1327.049347523737</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1327.049347523737</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1004.611946844417</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>832.0502353276421</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291648</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354732</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066088</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745699</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.62318245741</v>
       </c>
       <c r="U40" t="n">
-        <v>2228.223903459162</v>
+        <v>2173.190181710515</v>
       </c>
       <c r="V40" t="n">
-        <v>1941.268395329592</v>
+        <v>1886.234673580946</v>
       </c>
       <c r="W40" t="n">
-        <v>1669.241990915884</v>
+        <v>1614.208269167237</v>
       </c>
       <c r="X40" t="n">
-        <v>1423.850236249296</v>
+        <v>1368.81651450065</v>
       </c>
       <c r="Y40" t="n">
-        <v>1196.430565563404</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7414,10 +7414,10 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
         <v>2588.899621423628</v>
@@ -7447,7 +7447,7 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257732</v>
@@ -7487,31 +7487,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1056.803889081883</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127505</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7657,19 +7657,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>4729.704604581732</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O44" t="n">
-        <v>4729.704604581732</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P44" t="n">
-        <v>4729.704604581732</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
         <v>5113.042013538981</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3575.440564248063</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>3402.878852731288</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>3237.000859932811</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>3067.242856183548</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>2890.535802145304</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>2724.944527171132</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>5113.042013538981</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>5077.485521609701</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U46" t="n">
-        <v>4799.052520862807</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V46" t="n">
-        <v>4512.097012733238</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W46" t="n">
-        <v>4240.070608319529</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>3994.678853652942</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>3767.25918296705</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
+        <v>407.1525905495951</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79.31589866453203</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,10 +8139,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335029</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684635</v>
+        <v>72.80589558610882</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>385.0780411188028</v>
+        <v>30.91440664742026</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>317.1830304671578</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8391,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>291.5292041581911</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8455,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078568</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1082.305540278396</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>903.3699580700795</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9005,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.7440643176119</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>205.9191540463134</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9242,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>301.5463146682409</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>168.8387779969848</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10132,10 +10132,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,7 +10357,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>500.2430848324439</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10828,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10901,16 +10901,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>324.5237132641532</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>986.1859873202736</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.346812327467</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>44.07191583437719</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>41.29624514454001</v>
+        <v>88.19489769745816</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>84.63380825304756</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.0953302292553</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>122.4480280049974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>144.134485924087</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.9863699957346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>69.71657238081424</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>34.6746782719261</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>212.1323395461471</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>141.6500182959496</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>18.31929241554599</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473419</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>34.6746782719261</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>513446.2909014599</v>
+        <v>513446.2909014598</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>541901.0587747198</v>
+        <v>541901.0587747197</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>541901.0587747197</v>
+        <v>541901.0587747198</v>
       </c>
     </row>
     <row r="15">
@@ -26316,13 +26316,13 @@
         <v>482532.5879013676</v>
       </c>
       <c r="C2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013676</v>
       </c>
       <c r="D2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013676</v>
       </c>
       <c r="E2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="F2" t="n">
         <v>474171.825723617</v>
@@ -26331,16 +26331,16 @@
         <v>474171.825723617</v>
       </c>
       <c r="H2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="I2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="J2" t="n">
         <v>474171.8257236171</v>
       </c>
       <c r="K2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
       <c r="L2" t="n">
         <v>474171.825723617</v>
@@ -26349,13 +26349,13 @@
         <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236172</v>
       </c>
       <c r="O2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="P2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501616</v>
+        <v>66587.76789501577</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998277</v>
+        <v>11527.59554998315</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877251</v>
+        <v>53045.8546387722</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622314</v>
+        <v>9392.301726622623</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.119437218</v>
+        <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>179718.6327917066</v>
+        <v>179718.6327917068</v>
       </c>
       <c r="D4" t="n">
         <v>173889.5352664431</v>
@@ -26429,16 +26429,16 @@
         <v>94878.44464875291</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875283</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
@@ -26447,19 +26447,19 @@
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="M4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="N4" t="n">
         <v>94878.44464875291</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>94878.44464875286</v>
       </c>
-      <c r="N4" t="n">
-        <v>94878.44464875286</v>
-      </c>
-      <c r="O4" t="n">
-        <v>94878.44464875291</v>
-      </c>
       <c r="P4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800258</v>
+        <v>71956.2138080025</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26524,46 +26524,46 @@
         <v>68823.37966721744</v>
       </c>
       <c r="C6" t="n">
-        <v>164269.9734066424</v>
+        <v>164269.9734066425</v>
       </c>
       <c r="D6" t="n">
-        <v>222902.9325231841</v>
+        <v>222902.9325231836</v>
       </c>
       <c r="E6" t="n">
-        <v>119220.0332480218</v>
+        <v>119196.8089086391</v>
       </c>
       <c r="F6" t="n">
-        <v>301575.1424690716</v>
+        <v>301551.9181296889</v>
       </c>
       <c r="G6" t="n">
-        <v>301575.1424690717</v>
+        <v>301551.918129689</v>
       </c>
       <c r="H6" t="n">
-        <v>301575.1424690717</v>
+        <v>301551.9181296888</v>
       </c>
       <c r="I6" t="n">
-        <v>301575.1424690717</v>
+        <v>301551.9181296889</v>
       </c>
       <c r="J6" t="n">
-        <v>190560.6771240815</v>
+        <v>190537.4527846989</v>
       </c>
       <c r="K6" t="n">
-        <v>248529.287830299</v>
+        <v>248506.0634909168</v>
       </c>
       <c r="L6" t="n">
-        <v>292182.8407424493</v>
+        <v>292159.6164030664</v>
       </c>
       <c r="M6" t="n">
-        <v>149374.971531084</v>
+        <v>149351.7471917013</v>
       </c>
       <c r="N6" t="n">
-        <v>301575.1424690717</v>
+        <v>301551.9181296891</v>
       </c>
       <c r="O6" t="n">
-        <v>301575.1424690716</v>
+        <v>301551.918129689</v>
       </c>
       <c r="P6" t="n">
-        <v>301575.1424690716</v>
+        <v>301551.9181296889</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.090792417868801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.108974848358</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939339</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.108974848358</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939339</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.090792417868801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.108974848358</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939339</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>155.9466570854678</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>150.8055172122844</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>117.2343673075227</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>142.9947268671797</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>197.0881669284484</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>157.8236544515048</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>121.7325964197657</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>97.5649101521827</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>13.39309262413565</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>328.8330305885846</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-5.85001617220778e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30519,7 +30519,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
+        <v>407.1525905495951</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79.31589866453203</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -34877,7 +34877,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335029</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684635</v>
+        <v>72.80589558610882</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,19 +35011,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>385.0780411188028</v>
+        <v>30.91440664742026</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>317.1830304671578</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35111,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>291.5292041581911</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35175,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078568</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1082.305540278396</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>903.3699580700795</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35725,10 +35725,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638367</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.7440643176119</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>205.9191540463134</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>301.5463146682409</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36056,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119496</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>168.8387779969848</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36852,10 +36852,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>500.2430848324439</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37548,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37621,16 +37621,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>324.5237132641532</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908445</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,7 +37715,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37782,13 +37782,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>986.1859873202736</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.346812327467</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,13 +38189,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
